--- a/files/styles.xlsx
+++ b/files/styles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Eqt\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54F7970-9EC8-4C5D-9EA6-E1242908BE80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8974E02-AF06-4673-8119-695D2E06F506}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>descriptors</t>
   </si>
@@ -48,9 +48,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ivol_windA_63-1</t>
-  </si>
-  <si>
     <t>volatility</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -185,6 +182,13 @@
   </si>
   <si>
     <t>mutual_funds_holdings</t>
+  </si>
+  <si>
+    <t>hl_63-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ievol_windA_63_16-1</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1186,13 +1190,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="2">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1200,13 +1204,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1214,13 +1218,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1228,13 +1232,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1242,10 +1246,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>0.2</v>
@@ -1256,10 +1260,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>0.2</v>
@@ -1270,10 +1274,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>0.2</v>
@@ -1284,10 +1288,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>0.2</v>
@@ -1298,13 +1302,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.2</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1312,13 +1316,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.33333333333333331</v>
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1326,10 +1330,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>0.33333333333333331</v>
@@ -1340,10 +1344,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <v>0.33333333333333331</v>
@@ -1354,13 +1358,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1368,10 +1372,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>0.25</v>
@@ -1382,10 +1386,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
         <v>0.25</v>
@@ -1396,10 +1400,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
         <v>0.25</v>
@@ -1410,10 +1414,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <v>0.25</v>
@@ -1424,10 +1428,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <v>0.25</v>
@@ -1438,10 +1442,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>0.25</v>
@@ -1452,10 +1456,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <v>0.25</v>
@@ -1466,13 +1470,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1480,10 +1484,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>0.33333333333333331</v>
@@ -1494,10 +1498,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
         <v>0.33333333333333331</v>
@@ -1508,10 +1512,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>0.33333333333333331</v>
@@ -1522,10 +1526,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>0.33333333333333331</v>
@@ -1536,10 +1540,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2">
         <v>0.33333333333333331</v>
@@ -1550,13 +1554,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1564,10 +1568,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1578,13 +1582,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.5</v>
+        <v>44</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1592,15 +1596,29 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>0.5</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
     </row>

--- a/files/styles.xlsx
+++ b/files/styles.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Eqt\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8974E02-AF06-4673-8119-695D2E06F506}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="styles" sheetId="1" r:id="rId1"/>
@@ -194,11 +188,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,24 +793,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="42" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="4" builtinId="17" customBuiltin="1"/>
@@ -832,15 +826,15 @@
     <cellStyle name="警告文本" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="强调文字颜色 1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="39" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="39" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="16" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1111,28 +1105,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1230,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1258,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1286,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1300,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1325,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1339,10 +1333,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1353,10 +1347,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1367,10 +1361,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1381,10 +1375,10 @@
         <v>0.25</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1395,10 +1389,10 @@
         <v>0.25</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1409,10 +1403,10 @@
         <v>0.25</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1423,10 +1417,10 @@
         <v>0.25</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1437,10 +1431,10 @@
         <v>0.25</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1451,10 +1445,10 @@
         <v>0.25</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1465,10 +1459,10 @@
         <v>0.25</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1479,10 +1473,10 @@
         <v>0.25</v>
       </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1493,10 +1487,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1507,10 +1501,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1521,10 +1515,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1566,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1580,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1594,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1608,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>47</v>
       </c>
